--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Gas6-Tyro3.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Gas6-Tyro3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.0177214827022</v>
+        <v>19.23438166666667</v>
       </c>
       <c r="H2">
-        <v>19.0177214827022</v>
+        <v>57.70314500000001</v>
       </c>
       <c r="I2">
-        <v>0.1111230752721802</v>
+        <v>0.1061888747949397</v>
       </c>
       <c r="J2">
-        <v>0.1111230752721802</v>
+        <v>0.1061888747949397</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.79212411372246</v>
+        <v>0.2333953333333333</v>
       </c>
       <c r="N2">
-        <v>2.79212411372246</v>
+        <v>0.700186</v>
       </c>
       <c r="O2">
-        <v>0.9132692313612577</v>
+        <v>0.0679343338760815</v>
       </c>
       <c r="P2">
-        <v>0.9132692313612577</v>
+        <v>0.0679343338760815</v>
       </c>
       <c r="Q2">
-        <v>53.09983873991047</v>
+        <v>4.489214920552222</v>
       </c>
       <c r="R2">
-        <v>53.09983873991047</v>
+        <v>40.40293428497</v>
       </c>
       <c r="S2">
-        <v>0.1014852855403232</v>
+        <v>0.007213870474244847</v>
       </c>
       <c r="T2">
-        <v>0.1014852855403232</v>
+        <v>0.007213870474244846</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.0177214827022</v>
+        <v>19.23438166666667</v>
       </c>
       <c r="H3">
-        <v>19.0177214827022</v>
+        <v>57.70314500000001</v>
       </c>
       <c r="I3">
-        <v>0.1111230752721802</v>
+        <v>0.1061888747949397</v>
       </c>
       <c r="J3">
-        <v>0.1111230752721802</v>
+        <v>0.1061888747949397</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.26516065821791</v>
+        <v>2.855037666666667</v>
       </c>
       <c r="N3">
-        <v>0.26516065821791</v>
+        <v>8.565113</v>
       </c>
       <c r="O3">
-        <v>0.08673076863874221</v>
+        <v>0.8310152534160438</v>
       </c>
       <c r="P3">
-        <v>0.08673076863874221</v>
+        <v>0.8310152534160438</v>
       </c>
       <c r="Q3">
-        <v>5.042751546158203</v>
+        <v>54.91488415337611</v>
       </c>
       <c r="R3">
-        <v>5.042751546158203</v>
+        <v>494.233957380385</v>
       </c>
       <c r="S3">
-        <v>0.009637789731856999</v>
+        <v>0.08824457469768134</v>
       </c>
       <c r="T3">
-        <v>0.009637789731856999</v>
+        <v>0.08824457469768132</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>100.902968218614</v>
+        <v>19.23438166666667</v>
       </c>
       <c r="H4">
-        <v>100.902968218614</v>
+        <v>57.70314500000001</v>
       </c>
       <c r="I4">
-        <v>0.5895894596385826</v>
+        <v>0.1061888747949397</v>
       </c>
       <c r="J4">
-        <v>0.5895894596385826</v>
+        <v>0.1061888747949397</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.79212411372246</v>
+        <v>0.347169</v>
       </c>
       <c r="N4">
-        <v>2.79212411372246</v>
+        <v>1.041507</v>
       </c>
       <c r="O4">
-        <v>0.9132692313612577</v>
+        <v>0.1010504127078748</v>
       </c>
       <c r="P4">
-        <v>0.9132692313612577</v>
+        <v>0.1010504127078748</v>
       </c>
       <c r="Q4">
-        <v>281.7336107093632</v>
+        <v>6.677581048835</v>
       </c>
       <c r="R4">
-        <v>281.7336107093632</v>
+        <v>60.098229439515</v>
       </c>
       <c r="S4">
-        <v>0.5384539126228276</v>
+        <v>0.0107304296230135</v>
       </c>
       <c r="T4">
-        <v>0.5384539126228276</v>
+        <v>0.01073042962301349</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>100.902968218614</v>
+        <v>101.9328183333333</v>
       </c>
       <c r="H5">
-        <v>100.902968218614</v>
+        <v>305.798455</v>
       </c>
       <c r="I5">
-        <v>0.5895894596385826</v>
+        <v>0.5627491161960234</v>
       </c>
       <c r="J5">
-        <v>0.5895894596385826</v>
+        <v>0.5627491161960234</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.26516065821791</v>
+        <v>0.2333953333333333</v>
       </c>
       <c r="N5">
-        <v>0.26516065821791</v>
+        <v>0.700186</v>
       </c>
       <c r="O5">
-        <v>0.08673076863874221</v>
+        <v>0.0679343338760815</v>
       </c>
       <c r="P5">
-        <v>0.08673076863874221</v>
+        <v>0.0679343338760815</v>
       </c>
       <c r="Q5">
-        <v>26.75549746898854</v>
+        <v>23.79064411251444</v>
       </c>
       <c r="R5">
-        <v>26.75549746898854</v>
+        <v>214.11579701263</v>
       </c>
       <c r="S5">
-        <v>0.05113554701575494</v>
+        <v>0.03822998634813043</v>
       </c>
       <c r="T5">
-        <v>0.05113554701575494</v>
+        <v>0.03822998634813043</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -782,57 +782,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>33.9258550683041</v>
+        <v>101.9328183333333</v>
       </c>
       <c r="H6">
-        <v>33.9258550683041</v>
+        <v>305.798455</v>
       </c>
       <c r="I6">
-        <v>0.1982332820394511</v>
+        <v>0.5627491161960234</v>
       </c>
       <c r="J6">
-        <v>0.1982332820394511</v>
+        <v>0.5627491161960234</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.79212411372246</v>
+        <v>2.855037666666667</v>
       </c>
       <c r="N6">
-        <v>2.79212411372246</v>
+        <v>8.565113</v>
       </c>
       <c r="O6">
-        <v>0.9132692313612577</v>
+        <v>0.8310152534160438</v>
       </c>
       <c r="P6">
-        <v>0.9132692313612577</v>
+        <v>0.8310152534160438</v>
       </c>
       <c r="Q6">
-        <v>94.72519801486523</v>
+        <v>291.0220358111572</v>
       </c>
       <c r="R6">
-        <v>94.72519801486523</v>
+        <v>2619.198322300415</v>
       </c>
       <c r="S6">
-        <v>0.181040357118389</v>
+        <v>0.467653099405293</v>
       </c>
       <c r="T6">
-        <v>0.181040357118389</v>
+        <v>0.467653099405293</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -844,57 +844,57 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>33.9258550683041</v>
+        <v>101.9328183333333</v>
       </c>
       <c r="H7">
-        <v>33.9258550683041</v>
+        <v>305.798455</v>
       </c>
       <c r="I7">
-        <v>0.1982332820394511</v>
+        <v>0.5627491161960234</v>
       </c>
       <c r="J7">
-        <v>0.1982332820394511</v>
+        <v>0.5627491161960234</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.26516065821791</v>
+        <v>0.347169</v>
       </c>
       <c r="N7">
-        <v>0.26516065821791</v>
+        <v>1.041507</v>
       </c>
       <c r="O7">
-        <v>0.08673076863874221</v>
+        <v>0.1010504127078748</v>
       </c>
       <c r="P7">
-        <v>0.08673076863874221</v>
+        <v>0.1010504127078748</v>
       </c>
       <c r="Q7">
-        <v>8.995802060516935</v>
+        <v>35.387914607965</v>
       </c>
       <c r="R7">
-        <v>8.995802060516935</v>
+        <v>318.491231471685</v>
       </c>
       <c r="S7">
-        <v>0.01719292492106217</v>
+        <v>0.05686603044259995</v>
       </c>
       <c r="T7">
-        <v>0.01719292492106217</v>
+        <v>0.05686603044259995</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>16.2502321701197</v>
+        <v>33.990832</v>
       </c>
       <c r="H8">
-        <v>16.2502321701197</v>
+        <v>101.972496</v>
       </c>
       <c r="I8">
-        <v>0.09495226724574136</v>
+        <v>0.1876560560134372</v>
       </c>
       <c r="J8">
-        <v>0.09495226724574136</v>
+        <v>0.1876560560134371</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>2.79212411372246</v>
+        <v>0.2333953333333333</v>
       </c>
       <c r="N8">
-        <v>2.79212411372246</v>
+        <v>0.700186</v>
       </c>
       <c r="O8">
-        <v>0.9132692313612577</v>
+        <v>0.0679343338760815</v>
       </c>
       <c r="P8">
-        <v>0.9132692313612577</v>
+        <v>0.0679343338760815</v>
       </c>
       <c r="Q8">
-        <v>45.37266509577967</v>
+        <v>7.933301564917334</v>
       </c>
       <c r="R8">
-        <v>45.37266509577967</v>
+        <v>71.399714084256</v>
       </c>
       <c r="S8">
-        <v>0.08671698412352694</v>
+        <v>0.01274828916308549</v>
       </c>
       <c r="T8">
-        <v>0.08671698412352694</v>
+        <v>0.01274828916308549</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>16.2502321701197</v>
+        <v>33.990832</v>
       </c>
       <c r="H9">
-        <v>16.2502321701197</v>
+        <v>101.972496</v>
       </c>
       <c r="I9">
-        <v>0.09495226724574136</v>
+        <v>0.1876560560134372</v>
       </c>
       <c r="J9">
-        <v>0.09495226724574136</v>
+        <v>0.1876560560134371</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.26516065821791</v>
+        <v>2.855037666666667</v>
       </c>
       <c r="N9">
-        <v>0.26516065821791</v>
+        <v>8.565113</v>
       </c>
       <c r="O9">
-        <v>0.08673076863874221</v>
+        <v>0.8310152534160438</v>
       </c>
       <c r="P9">
-        <v>0.08673076863874221</v>
+        <v>0.8310152534160438</v>
       </c>
       <c r="Q9">
-        <v>4.308922258422795</v>
+        <v>97.04510568133868</v>
       </c>
       <c r="R9">
-        <v>4.308922258422795</v>
+        <v>873.4059511320481</v>
       </c>
       <c r="S9">
-        <v>0.008235283122214415</v>
+        <v>0.1559450449430618</v>
       </c>
       <c r="T9">
-        <v>0.008235283122214415</v>
+        <v>0.1559450449430617</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.04428837114151</v>
+        <v>33.990832</v>
       </c>
       <c r="H10">
-        <v>1.04428837114151</v>
+        <v>101.972496</v>
       </c>
       <c r="I10">
-        <v>0.006101915804044677</v>
+        <v>0.1876560560134372</v>
       </c>
       <c r="J10">
-        <v>0.006101915804044677</v>
+        <v>0.1876560560134371</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.79212411372246</v>
+        <v>0.347169</v>
       </c>
       <c r="N10">
-        <v>2.79212411372246</v>
+        <v>1.041507</v>
       </c>
       <c r="O10">
-        <v>0.9132692313612577</v>
+        <v>0.1010504127078748</v>
       </c>
       <c r="P10">
-        <v>0.9132692313612577</v>
+        <v>0.1010504127078748</v>
       </c>
       <c r="Q10">
-        <v>2.91578274274416</v>
+        <v>11.800563154608</v>
       </c>
       <c r="R10">
-        <v>2.91578274274416</v>
+        <v>106.205068391472</v>
       </c>
       <c r="S10">
-        <v>0.005572691956190993</v>
+        <v>0.01896272190728989</v>
       </c>
       <c r="T10">
-        <v>0.005572691956190993</v>
+        <v>0.01896272190728989</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,365 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>24.872162</v>
+      </c>
+      <c r="H11">
+        <v>74.61648600000001</v>
+      </c>
+      <c r="I11">
+        <v>0.1373138446698593</v>
+      </c>
+      <c r="J11">
+        <v>0.1373138446698593</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.2333953333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.700186</v>
+      </c>
+      <c r="O11">
+        <v>0.0679343338760815</v>
+      </c>
+      <c r="P11">
+        <v>0.0679343338760815</v>
+      </c>
+      <c r="Q11">
+        <v>5.805046540710667</v>
+      </c>
+      <c r="R11">
+        <v>52.245418866396</v>
+      </c>
+      <c r="S11">
+        <v>0.009328324569610618</v>
+      </c>
+      <c r="T11">
+        <v>0.009328324569610615</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>24.872162</v>
+      </c>
+      <c r="H12">
+        <v>74.61648600000001</v>
+      </c>
+      <c r="I12">
+        <v>0.1373138446698593</v>
+      </c>
+      <c r="J12">
+        <v>0.1373138446698593</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.855037666666667</v>
+      </c>
+      <c r="N12">
+        <v>8.565113</v>
+      </c>
+      <c r="O12">
+        <v>0.8310152534160438</v>
+      </c>
+      <c r="P12">
+        <v>0.8310152534160438</v>
+      </c>
+      <c r="Q12">
+        <v>71.01095936143534</v>
+      </c>
+      <c r="R12">
+        <v>639.0986342529181</v>
+      </c>
+      <c r="S12">
+        <v>0.1141098994258544</v>
+      </c>
+      <c r="T12">
+        <v>0.1141098994258544</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1.04428837114151</v>
-      </c>
-      <c r="H11">
-        <v>1.04428837114151</v>
-      </c>
-      <c r="I11">
-        <v>0.006101915804044677</v>
-      </c>
-      <c r="J11">
-        <v>0.006101915804044677</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.26516065821791</v>
-      </c>
-      <c r="N11">
-        <v>0.26516065821791</v>
-      </c>
-      <c r="O11">
-        <v>0.08673076863874221</v>
-      </c>
-      <c r="P11">
-        <v>0.08673076863874221</v>
-      </c>
-      <c r="Q11">
-        <v>0.2769041918611919</v>
-      </c>
-      <c r="R11">
-        <v>0.2769041918611919</v>
-      </c>
-      <c r="S11">
-        <v>0.0005292238478536835</v>
-      </c>
-      <c r="T11">
-        <v>0.0005292238478536835</v>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>24.872162</v>
+      </c>
+      <c r="H13">
+        <v>74.61648600000001</v>
+      </c>
+      <c r="I13">
+        <v>0.1373138446698593</v>
+      </c>
+      <c r="J13">
+        <v>0.1373138446698593</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.347169</v>
+      </c>
+      <c r="N13">
+        <v>1.041507</v>
+      </c>
+      <c r="O13">
+        <v>0.1010504127078748</v>
+      </c>
+      <c r="P13">
+        <v>0.1010504127078748</v>
+      </c>
+      <c r="Q13">
+        <v>8.634843609378001</v>
+      </c>
+      <c r="R13">
+        <v>77.713592484402</v>
+      </c>
+      <c r="S13">
+        <v>0.0138756206743943</v>
+      </c>
+      <c r="T13">
+        <v>0.01387562067439429</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.103486</v>
+      </c>
+      <c r="H14">
+        <v>3.310458</v>
+      </c>
+      <c r="I14">
+        <v>0.006092108325740414</v>
+      </c>
+      <c r="J14">
+        <v>0.006092108325740414</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.2333953333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.700186</v>
+      </c>
+      <c r="O14">
+        <v>0.0679343338760815</v>
+      </c>
+      <c r="P14">
+        <v>0.0679343338760815</v>
+      </c>
+      <c r="Q14">
+        <v>0.2575484827986667</v>
+      </c>
+      <c r="R14">
+        <v>2.317936345188</v>
+      </c>
+      <c r="S14">
+        <v>0.0004138633210101052</v>
+      </c>
+      <c r="T14">
+        <v>0.0004138633210101051</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.103486</v>
+      </c>
+      <c r="H15">
+        <v>3.310458</v>
+      </c>
+      <c r="I15">
+        <v>0.006092108325740414</v>
+      </c>
+      <c r="J15">
+        <v>0.006092108325740414</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.855037666666667</v>
+      </c>
+      <c r="N15">
+        <v>8.565113</v>
+      </c>
+      <c r="O15">
+        <v>0.8310152534160438</v>
+      </c>
+      <c r="P15">
+        <v>0.8310152534160438</v>
+      </c>
+      <c r="Q15">
+        <v>3.150494094639333</v>
+      </c>
+      <c r="R15">
+        <v>28.354446851754</v>
+      </c>
+      <c r="S15">
+        <v>0.005062634944153161</v>
+      </c>
+      <c r="T15">
+        <v>0.00506263494415316</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.103486</v>
+      </c>
+      <c r="H16">
+        <v>3.310458</v>
+      </c>
+      <c r="I16">
+        <v>0.006092108325740414</v>
+      </c>
+      <c r="J16">
+        <v>0.006092108325740414</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.347169</v>
+      </c>
+      <c r="N16">
+        <v>1.041507</v>
+      </c>
+      <c r="O16">
+        <v>0.1010504127078748</v>
+      </c>
+      <c r="P16">
+        <v>0.1010504127078748</v>
+      </c>
+      <c r="Q16">
+        <v>0.383096131134</v>
+      </c>
+      <c r="R16">
+        <v>3.447865180206</v>
+      </c>
+      <c r="S16">
+        <v>0.0006156100605771489</v>
+      </c>
+      <c r="T16">
+        <v>0.0006156100605771488</v>
       </c>
     </row>
   </sheetData>
